--- a/BoxOffice Report.xlsx
+++ b/BoxOffice Report.xlsx
@@ -490,13 +490,13 @@
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>277501409</v>
+        <v>280256121</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>4074</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>68115.22066764851</v>
+        <v>68791.38954344625</v>
       </c>
     </row>
     <row r="3">
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>181131595</v>
+        <v>185562690</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>4067</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>44536.90558150971</v>
+        <v>45626.429800836</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>173866084</v>
+        <v>182803756</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>3948</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>44039.02836879432</v>
+        <v>46302.87639311043</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="D5" s="4" t="n">
-        <v>103877749</v>
+        <v>107814063</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>4345</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23907.42209436134</v>
+        <v>24813.36317606444</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>96883739</v>
+        <v>96893170</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>3597</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26934.59521823742</v>
+        <v>26937.21712538226</v>
       </c>
     </row>
   </sheetData>
